--- a/tests/unit/fixtures/data/FBA20220401.xlsx
+++ b/tests/unit/fixtures/data/FBA20220401.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\php\yii2exts\exts\48-yii2-charging\tests\unit\fixtures\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122AF5C6-F6D4-4C36-9797-1B0B2CB8BE9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE669CC4-7A53-4177-B74F-E1F80183756C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28035" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1384,8 +1384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/tests/unit/fixtures/data/FBA20220401.xlsx
+++ b/tests/unit/fixtures/data/FBA20220401.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\php\yii2exts\exts\48-yii2-charging\tests\unit\fixtures\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE669CC4-7A53-4177-B74F-E1F80183756C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C001351-47B0-4E3F-BB8B-C121838BAB1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28035" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27810" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShippingTable" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ES</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>NL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1039,6 +1035,10 @@
   </si>
   <si>
     <t>L+2(W+H)Limit(CM)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES/PT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1384,8 +1384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1406,25 +1406,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>2</v>
@@ -1433,21 +1433,21 @@
         <v>3</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>0.08</v>
@@ -1462,33 +1462,33 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>16</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" t="s">
         <v>19</v>
-      </c>
-      <c r="N2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0.06</v>
@@ -1503,33 +1503,33 @@
         <v>2.5</v>
       </c>
       <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>24</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>25</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>26</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>27</v>
-      </c>
-      <c r="N3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>0.21</v>
@@ -1544,33 +1544,33 @@
         <v>2.5</v>
       </c>
       <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>30</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
         <v>31</v>
       </c>
-      <c r="J4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>32</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>33</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>34</v>
-      </c>
-      <c r="N4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0.46</v>
@@ -1585,33 +1585,33 @@
         <v>2.5</v>
       </c>
       <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
         <v>36</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>37</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>38</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>39</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>40</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>41</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>42</v>
-      </c>
-      <c r="N5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>0.96</v>
@@ -1626,33 +1626,33 @@
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
         <v>44</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>45</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>46</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>47</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>48</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>49</v>
-      </c>
-      <c r="N6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>0.96</v>
@@ -1667,33 +1667,33 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
         <v>51</v>
       </c>
-      <c r="H7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>52</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>53</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>54</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>55</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>56</v>
-      </c>
-      <c r="N7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>0.15</v>
@@ -1708,33 +1708,33 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" t="s">
         <v>58</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>59</v>
       </c>
-      <c r="I8" t="s">
-        <v>60</v>
-      </c>
       <c r="J8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" t="s">
         <v>61</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>62</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>63</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>64</v>
-      </c>
-      <c r="N8" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>0.4</v>
@@ -1749,33 +1749,33 @@
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" t="s">
         <v>66</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>67</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>68</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>69</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>70</v>
-      </c>
-      <c r="N9" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>0.9</v>
@@ -1790,33 +1790,33 @@
         <v>12</v>
       </c>
       <c r="G10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" t="s">
         <v>72</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>73</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>74</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>75</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>76</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>77</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>78</v>
-      </c>
-      <c r="N10" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>1.4</v>
@@ -1831,33 +1831,33 @@
         <v>12</v>
       </c>
       <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" t="s">
         <v>80</v>
       </c>
-      <c r="H11" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" t="s">
-        <v>82</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>83</v>
       </c>
-      <c r="K11" t="s">
-        <v>81</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>84</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>85</v>
-      </c>
-      <c r="N11" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1.9</v>
@@ -1872,33 +1872,33 @@
         <v>12</v>
       </c>
       <c r="G12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" t="s">
         <v>87</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>88</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>89</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>90</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>91</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>92</v>
       </c>
-      <c r="M12" t="s">
-        <v>93</v>
-      </c>
       <c r="N12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>3.9</v>
@@ -1913,33 +1913,33 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" t="s">
         <v>94</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>95</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>96</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>97</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>98</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>99</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>100</v>
-      </c>
-      <c r="N13" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>0.15</v>
@@ -1954,33 +1954,33 @@
         <v>26</v>
       </c>
       <c r="G14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" t="s">
         <v>102</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>103</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>104</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>105</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>106</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>107</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>108</v>
-      </c>
-      <c r="N14" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>0.4</v>
@@ -1995,33 +1995,33 @@
         <v>26</v>
       </c>
       <c r="G15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" t="s">
         <v>110</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>111</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>112</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>113</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>114</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>115</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>116</v>
-      </c>
-      <c r="N15" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>0.9</v>
@@ -2036,33 +2036,33 @@
         <v>26</v>
       </c>
       <c r="G16" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" t="s">
         <v>118</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>119</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>120</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>121</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>122</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>123</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>124</v>
-      </c>
-      <c r="N16" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17">
         <v>1.4</v>
@@ -2077,33 +2077,33 @@
         <v>26</v>
       </c>
       <c r="G17" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" t="s">
         <v>126</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>127</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>128</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>129</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>130</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>131</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>132</v>
-      </c>
-      <c r="N17" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>1.9</v>
@@ -2118,33 +2118,33 @@
         <v>26</v>
       </c>
       <c r="G18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H18" t="s">
         <v>134</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>135</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>136</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>137</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>138</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>139</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>140</v>
-      </c>
-      <c r="N18" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>2.9</v>
@@ -2159,33 +2159,33 @@
         <v>26</v>
       </c>
       <c r="G19" t="s">
+        <v>141</v>
+      </c>
+      <c r="H19" t="s">
         <v>142</v>
       </c>
-      <c r="H19" t="s">
-        <v>143</v>
-      </c>
       <c r="I19" t="s">
+        <v>144</v>
+      </c>
+      <c r="J19" t="s">
         <v>145</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>146</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>147</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>148</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>149</v>
-      </c>
-      <c r="N19" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>3.9</v>
@@ -2200,33 +2200,33 @@
         <v>26</v>
       </c>
       <c r="G20" t="s">
+        <v>150</v>
+      </c>
+      <c r="H20" t="s">
         <v>151</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>152</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>153</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>154</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>155</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>156</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>157</v>
-      </c>
-      <c r="N20" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>5.9</v>
@@ -2241,33 +2241,33 @@
         <v>26</v>
       </c>
       <c r="G21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H21" t="s">
+        <v>158</v>
+      </c>
+      <c r="I21" t="s">
         <v>159</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>160</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>161</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>162</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>163</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>164</v>
-      </c>
-      <c r="N21" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>8.9</v>
@@ -2282,33 +2282,33 @@
         <v>26</v>
       </c>
       <c r="G22" t="s">
+        <v>165</v>
+      </c>
+      <c r="H22" t="s">
         <v>166</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>167</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>168</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>169</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>170</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>171</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>172</v>
-      </c>
-      <c r="N22" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>11.9</v>
@@ -2323,33 +2323,33 @@
         <v>26</v>
       </c>
       <c r="G23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I23" t="s">
+        <v>175</v>
+      </c>
+      <c r="J23" t="s">
         <v>176</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>177</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>178</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>179</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>180</v>
-      </c>
-      <c r="N23" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>0.76</v>
@@ -2364,33 +2364,33 @@
         <v>46</v>
       </c>
       <c r="G24" t="s">
+        <v>181</v>
+      </c>
+      <c r="H24" t="s">
+        <v>146</v>
+      </c>
+      <c r="I24" t="s">
         <v>182</v>
       </c>
-      <c r="H24" t="s">
-        <v>147</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>183</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>184</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>185</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>186</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>187</v>
-      </c>
-      <c r="N24" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>1.26</v>
@@ -2405,33 +2405,33 @@
         <v>46</v>
       </c>
       <c r="G25" t="s">
+        <v>188</v>
+      </c>
+      <c r="H25" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" t="s">
         <v>189</v>
       </c>
-      <c r="H25" t="s">
-        <v>82</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>190</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>191</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>192</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>193</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>194</v>
-      </c>
-      <c r="N25" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26">
         <v>1.76</v>
@@ -2446,33 +2446,33 @@
         <v>46</v>
       </c>
       <c r="G26" t="s">
+        <v>195</v>
+      </c>
+      <c r="H26" t="s">
         <v>196</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>197</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>198</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>199</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>200</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>201</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>202</v>
-      </c>
-      <c r="N26" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27">
         <v>0.76</v>
@@ -2487,33 +2487,33 @@
         <v>60</v>
       </c>
       <c r="G27" t="s">
+        <v>203</v>
+      </c>
+      <c r="H27" t="s">
+        <v>143</v>
+      </c>
+      <c r="I27" t="s">
         <v>204</v>
       </c>
-      <c r="H27" t="s">
-        <v>144</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>205</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>206</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>207</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>208</v>
       </c>
-      <c r="M27" t="s">
-        <v>209</v>
-      </c>
       <c r="N27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28">
         <v>1.76</v>
@@ -2528,33 +2528,33 @@
         <v>60</v>
       </c>
       <c r="G28" t="s">
+        <v>209</v>
+      </c>
+      <c r="H28" t="s">
         <v>210</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>211</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>212</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>213</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>214</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>215</v>
       </c>
-      <c r="M28" t="s">
-        <v>216</v>
-      </c>
       <c r="N28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29">
         <v>2.76</v>
@@ -2569,33 +2569,33 @@
         <v>60</v>
       </c>
       <c r="G29" t="s">
+        <v>216</v>
+      </c>
+      <c r="H29" t="s">
         <v>217</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>218</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
+        <v>160</v>
+      </c>
+      <c r="K29" t="s">
+        <v>174</v>
+      </c>
+      <c r="L29" t="s">
         <v>219</v>
       </c>
-      <c r="J29" t="s">
-        <v>161</v>
-      </c>
-      <c r="K29" t="s">
-        <v>175</v>
-      </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>220</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>221</v>
-      </c>
-      <c r="N29" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B30">
         <v>3.76</v>
@@ -2610,33 +2610,33 @@
         <v>60</v>
       </c>
       <c r="G30" t="s">
+        <v>222</v>
+      </c>
+      <c r="H30" t="s">
         <v>223</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>224</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>225</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>226</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>227</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>228</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>229</v>
-      </c>
-      <c r="N30" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31">
         <v>4.76</v>
@@ -2651,33 +2651,33 @@
         <v>60</v>
       </c>
       <c r="G31" t="s">
+        <v>230</v>
+      </c>
+      <c r="H31" t="s">
         <v>231</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>232</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>233</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>234</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>235</v>
       </c>
-      <c r="L31" t="s">
-        <v>236</v>
-      </c>
       <c r="M31" t="s">
+        <v>228</v>
+      </c>
+      <c r="N31" t="s">
         <v>229</v>
-      </c>
-      <c r="N31" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32">
         <v>9.76</v>
@@ -2692,33 +2692,33 @@
         <v>60</v>
       </c>
       <c r="G32" t="s">
+        <v>236</v>
+      </c>
+      <c r="H32" t="s">
+        <v>161</v>
+      </c>
+      <c r="I32" t="s">
         <v>237</v>
       </c>
-      <c r="H32" t="s">
-        <v>162</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>238</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>239</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>240</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>241</v>
       </c>
-      <c r="M32" t="s">
-        <v>242</v>
-      </c>
       <c r="N32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B33">
         <v>14.76</v>
@@ -2733,33 +2733,33 @@
         <v>60</v>
       </c>
       <c r="G33" t="s">
+        <v>242</v>
+      </c>
+      <c r="H33" t="s">
         <v>243</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>244</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>245</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>246</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>247</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>248</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>249</v>
-      </c>
-      <c r="N33" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B34">
         <v>19.760000000000002</v>
@@ -2774,33 +2774,33 @@
         <v>60</v>
       </c>
       <c r="G34" t="s">
+        <v>250</v>
+      </c>
+      <c r="H34" t="s">
         <v>251</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>252</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>253</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>254</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>255</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>256</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>257</v>
-      </c>
-      <c r="N34" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B35">
         <v>24.76</v>
@@ -2815,33 +2815,33 @@
         <v>60</v>
       </c>
       <c r="G35" t="s">
+        <v>258</v>
+      </c>
+      <c r="H35" t="s">
         <v>259</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
+        <v>252</v>
+      </c>
+      <c r="J35" t="s">
         <v>260</v>
       </c>
-      <c r="I35" t="s">
-        <v>253</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>261</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>262</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>263</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>264</v>
-      </c>
-      <c r="N35" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B36">
         <v>29.76</v>
@@ -2856,33 +2856,33 @@
         <v>60</v>
       </c>
       <c r="G36" t="s">
+        <v>265</v>
+      </c>
+      <c r="H36" t="s">
         <v>266</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>267</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>268</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>269</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>270</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>271</v>
       </c>
-      <c r="M36" t="s">
-        <v>272</v>
-      </c>
       <c r="N36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B37">
         <v>4.76</v>
@@ -2900,33 +2900,33 @@
         <v>360</v>
       </c>
       <c r="G37" t="s">
+        <v>272</v>
+      </c>
+      <c r="H37" t="s">
+        <v>205</v>
+      </c>
+      <c r="I37" t="s">
         <v>273</v>
       </c>
-      <c r="H37" t="s">
-        <v>206</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
+        <v>197</v>
+      </c>
+      <c r="K37" t="s">
         <v>274</v>
       </c>
-      <c r="J37" t="s">
-        <v>198</v>
-      </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>275</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>276</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>277</v>
-      </c>
-      <c r="N37" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38">
         <v>9.76</v>
@@ -2944,33 +2944,33 @@
         <v>360</v>
       </c>
       <c r="G38" t="s">
+        <v>278</v>
+      </c>
+      <c r="H38" t="s">
         <v>279</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>280</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>281</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>282</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
+        <v>211</v>
+      </c>
+      <c r="M38" t="s">
         <v>283</v>
       </c>
-      <c r="L38" t="s">
-        <v>212</v>
-      </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>284</v>
-      </c>
-      <c r="N38" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B39">
         <v>14.76</v>
@@ -2988,33 +2988,33 @@
         <v>360</v>
       </c>
       <c r="G39" t="s">
+        <v>285</v>
+      </c>
+      <c r="H39" t="s">
         <v>286</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>287</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>288</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>289</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>290</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>291</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>292</v>
-      </c>
-      <c r="N39" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>19.760000000000002</v>
@@ -3032,33 +3032,33 @@
         <v>360</v>
       </c>
       <c r="G40" t="s">
+        <v>293</v>
+      </c>
+      <c r="H40" t="s">
         <v>294</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>295</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>296</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>297</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>298</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>299</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>300</v>
-      </c>
-      <c r="N40" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41">
         <v>24.76</v>
@@ -3076,33 +3076,33 @@
         <v>360</v>
       </c>
       <c r="G41" t="s">
+        <v>301</v>
+      </c>
+      <c r="H41" t="s">
         <v>302</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>303</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>304</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>305</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>306</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>307</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>308</v>
-      </c>
-      <c r="N41" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B42">
         <v>31.5</v>
@@ -3120,88 +3120,88 @@
         <v>360</v>
       </c>
       <c r="G42" t="s">
+        <v>309</v>
+      </c>
+      <c r="H42" t="s">
         <v>310</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>311</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>312</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>313</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>314</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>315</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>316</v>
-      </c>
-      <c r="N42" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B43">
         <v>20</v>
       </c>
       <c r="G43" t="s">
+        <v>317</v>
+      </c>
+      <c r="H43" t="s">
         <v>318</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>319</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>320</v>
-      </c>
-      <c r="J43" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B44">
         <v>40</v>
       </c>
       <c r="G44" t="s">
+        <v>321</v>
+      </c>
+      <c r="H44" t="s">
         <v>322</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>323</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>324</v>
-      </c>
-      <c r="J44" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B45">
         <v>60</v>
       </c>
       <c r="G45" t="s">
+        <v>325</v>
+      </c>
+      <c r="H45" t="s">
         <v>326</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
+        <v>328</v>
+      </c>
+      <c r="J45" t="s">
         <v>327</v>
-      </c>
-      <c r="I45" t="s">
-        <v>329</v>
-      </c>
-      <c r="J45" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
